--- a/Team-Data/2011-12/1-22-2011-12.xlsx
+++ b/Team-Data/2011-12/1-22-2011-12.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,16 +811,16 @@
         <v>7.1</v>
       </c>
       <c r="AD2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE2" t="n">
         <v>3</v>
       </c>
       <c r="AF2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH2" t="n">
         <v>2</v>
@@ -762,7 +829,7 @@
         <v>9</v>
       </c>
       <c r="AJ2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK2" t="n">
         <v>10</v>
@@ -774,7 +841,7 @@
         <v>17</v>
       </c>
       <c r="AN2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO2" t="n">
         <v>12</v>
@@ -786,19 +853,19 @@
         <v>22</v>
       </c>
       <c r="AR2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AS2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AT2" t="n">
         <v>14</v>
       </c>
       <c r="AU2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW2" t="n">
         <v>13</v>
@@ -813,7 +880,7 @@
         <v>4</v>
       </c>
       <c r="BA2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BB2" t="n">
         <v>6</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-22-2011-12</t>
+          <t>2012-01-22</t>
         </is>
       </c>
     </row>
@@ -848,94 +915,94 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F3" t="n">
         <v>9</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4</v>
+        <v>0.357</v>
       </c>
       <c r="H3" t="n">
         <v>48</v>
       </c>
       <c r="I3" t="n">
-        <v>33.5</v>
+        <v>33.3</v>
       </c>
       <c r="J3" t="n">
-        <v>74.2</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="K3" t="n">
-        <v>0.452</v>
+        <v>0.448</v>
       </c>
       <c r="L3" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="M3" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="N3" t="n">
         <v>0.427</v>
       </c>
       <c r="O3" t="n">
-        <v>16.5</v>
+        <v>16.2</v>
       </c>
       <c r="P3" t="n">
-        <v>22.3</v>
+        <v>21.7</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.743</v>
+        <v>0.747</v>
       </c>
       <c r="R3" t="n">
-        <v>9.1</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="S3" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="T3" t="n">
-        <v>38.3</v>
+        <v>38.6</v>
       </c>
       <c r="U3" t="n">
         <v>21.5</v>
       </c>
       <c r="V3" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="W3" t="n">
+        <v>6</v>
+      </c>
+      <c r="X3" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="Y3" t="n">
         <v>6.1</v>
-      </c>
-      <c r="X3" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>6.2</v>
       </c>
       <c r="Z3" t="n">
         <v>20.6</v>
       </c>
       <c r="AA3" t="n">
-        <v>20.4</v>
+        <v>19.9</v>
       </c>
       <c r="AB3" t="n">
-        <v>89.59999999999999</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="AC3" t="n">
-        <v>-0.8</v>
+        <v>-1.3</v>
       </c>
       <c r="AD3" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="AE3" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AF3" t="n">
         <v>17</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AH3" t="n">
         <v>18</v>
@@ -947,13 +1014,13 @@
         <v>30</v>
       </c>
       <c r="AK3" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AL3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AM3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AN3" t="n">
         <v>1</v>
@@ -962,10 +1029,10 @@
         <v>17</v>
       </c>
       <c r="AP3" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AQ3" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AR3" t="n">
         <v>29</v>
@@ -980,22 +1047,22 @@
         <v>8</v>
       </c>
       <c r="AV3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW3" t="n">
+        <v>27</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY3" t="n">
         <v>28</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>29</v>
       </c>
       <c r="AZ3" t="n">
         <v>16</v>
       </c>
       <c r="BA3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BB3" t="n">
         <v>26</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-22-2011-12</t>
+          <t>2012-01-22</t>
         </is>
       </c>
     </row>
@@ -1030,64 +1097,64 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4" t="n">
         <v>3</v>
       </c>
       <c r="F4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G4" t="n">
-        <v>0.176</v>
+        <v>0.188</v>
       </c>
       <c r="H4" t="n">
         <v>48.3</v>
       </c>
       <c r="I4" t="n">
-        <v>36</v>
+        <v>35.9</v>
       </c>
       <c r="J4" t="n">
-        <v>82.8</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="K4" t="n">
-        <v>0.435</v>
+        <v>0.433</v>
       </c>
       <c r="L4" t="n">
         <v>4.6</v>
       </c>
       <c r="M4" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="N4" t="n">
-        <v>0.313</v>
+        <v>0.311</v>
       </c>
       <c r="O4" t="n">
-        <v>14.1</v>
+        <v>14.5</v>
       </c>
       <c r="P4" t="n">
-        <v>19.2</v>
+        <v>19.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.734</v>
+        <v>0.744</v>
       </c>
       <c r="R4" t="n">
-        <v>10.5</v>
+        <v>10.8</v>
       </c>
       <c r="S4" t="n">
-        <v>31.1</v>
+        <v>31.3</v>
       </c>
       <c r="T4" t="n">
-        <v>41.6</v>
+        <v>42.1</v>
       </c>
       <c r="U4" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="V4" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="W4" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="X4" t="n">
         <v>5.6</v>
@@ -1099,37 +1166,37 @@
         <v>20.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>18.8</v>
+        <v>19.1</v>
       </c>
       <c r="AB4" t="n">
-        <v>90.7</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="AC4" t="n">
         <v>-10.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AE4" t="n">
         <v>28</v>
       </c>
       <c r="AF4" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AG4" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AH4" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AI4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ4" t="n">
         <v>8</v>
       </c>
       <c r="AK4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL4" t="n">
         <v>25</v>
@@ -1141,25 +1208,25 @@
         <v>21</v>
       </c>
       <c r="AO4" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AP4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AQ4" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AR4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AS4" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AT4" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AU4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AV4" t="n">
         <v>11</v>
@@ -1171,13 +1238,13 @@
         <v>6</v>
       </c>
       <c r="AY4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ4" t="n">
         <v>15</v>
       </c>
       <c r="BA4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BB4" t="n">
         <v>24</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-22-2011-12</t>
+          <t>2012-01-22</t>
         </is>
       </c>
     </row>
@@ -1308,40 +1375,40 @@
         <v>7</v>
       </c>
       <c r="AJ5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK5" t="n">
         <v>7</v>
       </c>
       <c r="AL5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AN5" t="n">
         <v>6</v>
       </c>
       <c r="AO5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP5" t="n">
         <v>22</v>
       </c>
       <c r="AQ5" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AR5" t="n">
         <v>2</v>
       </c>
       <c r="AS5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AT5" t="n">
         <v>1</v>
       </c>
       <c r="AU5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV5" t="n">
         <v>7</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-22-2011-12</t>
+          <t>2012-01-22</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>-4.2</v>
       </c>
       <c r="AD6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE6" t="n">
         <v>18</v>
@@ -1484,13 +1551,13 @@
         <v>18</v>
       </c>
       <c r="AH6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI6" t="n">
         <v>19</v>
       </c>
       <c r="AJ6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK6" t="n">
         <v>22</v>
@@ -1499,7 +1566,7 @@
         <v>5</v>
       </c>
       <c r="AM6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN6" t="n">
         <v>10</v>
@@ -1508,13 +1575,13 @@
         <v>11</v>
       </c>
       <c r="AP6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AQ6" t="n">
         <v>28</v>
       </c>
       <c r="AR6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AS6" t="n">
         <v>24</v>
@@ -1526,19 +1593,19 @@
         <v>20</v>
       </c>
       <c r="AV6" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AW6" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AX6" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AY6" t="n">
         <v>30</v>
       </c>
       <c r="AZ6" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BA6" t="n">
         <v>8</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-22-2011-12</t>
+          <t>2012-01-22</t>
         </is>
       </c>
     </row>
@@ -1654,10 +1721,10 @@
         <v>3.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF7" t="n">
         <v>12</v>
@@ -1684,16 +1751,16 @@
         <v>5</v>
       </c>
       <c r="AN7" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AO7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP7" t="n">
         <v>14</v>
       </c>
-      <c r="AP7" t="n">
-        <v>15</v>
-      </c>
       <c r="AQ7" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AR7" t="n">
         <v>27</v>
@@ -1705,7 +1772,7 @@
         <v>17</v>
       </c>
       <c r="AU7" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AV7" t="n">
         <v>12</v>
@@ -1720,16 +1787,16 @@
         <v>2</v>
       </c>
       <c r="AZ7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BB7" t="n">
         <v>22</v>
       </c>
       <c r="BC7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-22-2011-12</t>
+          <t>2012-01-22</t>
         </is>
       </c>
     </row>
@@ -1836,16 +1903,16 @@
         <v>5.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE8" t="n">
         <v>3</v>
       </c>
       <c r="AF8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH8" t="n">
         <v>4</v>
@@ -1866,7 +1933,7 @@
         <v>8</v>
       </c>
       <c r="AN8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO8" t="n">
         <v>2</v>
@@ -1884,7 +1951,7 @@
         <v>5</v>
       </c>
       <c r="AT8" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AU8" t="n">
         <v>1</v>
@@ -1905,10 +1972,10 @@
         <v>5</v>
       </c>
       <c r="BA8" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB8" t="n">
         <v>2</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>1</v>
       </c>
       <c r="BC8" t="n">
         <v>5</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-22-2011-12</t>
+          <t>2012-01-22</t>
         </is>
       </c>
     </row>
@@ -2018,22 +2085,22 @@
         <v>-9.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE9" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AF9" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG9" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AH9" t="n">
         <v>18</v>
       </c>
       <c r="AI9" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AJ9" t="n">
         <v>28</v>
@@ -2051,16 +2118,16 @@
         <v>8</v>
       </c>
       <c r="AO9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP9" t="n">
         <v>26</v>
       </c>
       <c r="AQ9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AR9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AS9" t="n">
         <v>30</v>
@@ -2069,7 +2136,7 @@
         <v>30</v>
       </c>
       <c r="AU9" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AV9" t="n">
         <v>30</v>
@@ -2081,7 +2148,7 @@
         <v>29</v>
       </c>
       <c r="AY9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ9" t="n">
         <v>8</v>
@@ -2090,7 +2157,7 @@
         <v>25</v>
       </c>
       <c r="BB9" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BC9" t="n">
         <v>27</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-22-2011-12</t>
+          <t>2012-01-22</t>
         </is>
       </c>
     </row>
@@ -2200,10 +2267,10 @@
         <v>-3.8</v>
       </c>
       <c r="AD10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE10" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AF10" t="n">
         <v>22</v>
@@ -2212,7 +2279,7 @@
         <v>24</v>
       </c>
       <c r="AH10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI10" t="n">
         <v>10</v>
@@ -2239,7 +2306,7 @@
         <v>16</v>
       </c>
       <c r="AQ10" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AR10" t="n">
         <v>23</v>
@@ -2254,10 +2321,10 @@
         <v>10</v>
       </c>
       <c r="AV10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX10" t="n">
         <v>17</v>
@@ -2266,7 +2333,7 @@
         <v>6</v>
       </c>
       <c r="AZ10" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BA10" t="n">
         <v>26</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-22-2011-12</t>
+          <t>2012-01-22</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>-0.1</v>
       </c>
       <c r="AD11" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AE11" t="n">
         <v>13</v>
@@ -2391,7 +2458,7 @@
         <v>12</v>
       </c>
       <c r="AG11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH11" t="n">
         <v>3</v>
@@ -2403,10 +2470,10 @@
         <v>1</v>
       </c>
       <c r="AK11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AM11" t="n">
         <v>6</v>
@@ -2424,13 +2491,13 @@
         <v>1</v>
       </c>
       <c r="AR11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AS11" t="n">
         <v>14</v>
       </c>
       <c r="AT11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AU11" t="n">
         <v>16</v>
@@ -2448,13 +2515,13 @@
         <v>23</v>
       </c>
       <c r="AZ11" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BA11" t="n">
         <v>30</v>
       </c>
       <c r="BB11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC11" t="n">
         <v>17</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-22-2011-12</t>
+          <t>2012-01-22</t>
         </is>
       </c>
     </row>
@@ -2486,94 +2553,94 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F12" t="n">
         <v>4</v>
       </c>
       <c r="G12" t="n">
-        <v>0.733</v>
+        <v>0.714</v>
       </c>
       <c r="H12" t="n">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="I12" t="n">
-        <v>33.7</v>
+        <v>33.5</v>
       </c>
       <c r="J12" t="n">
-        <v>80.5</v>
+        <v>80.7</v>
       </c>
       <c r="K12" t="n">
-        <v>0.418</v>
+        <v>0.415</v>
       </c>
       <c r="L12" t="n">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="M12" t="n">
-        <v>14.5</v>
+        <v>14.2</v>
       </c>
       <c r="N12" t="n">
-        <v>0.396</v>
+        <v>0.382</v>
       </c>
       <c r="O12" t="n">
-        <v>20.1</v>
+        <v>20.4</v>
       </c>
       <c r="P12" t="n">
-        <v>25.5</v>
+        <v>25.9</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.791</v>
+        <v>0.788</v>
       </c>
       <c r="R12" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="S12" t="n">
-        <v>32.5</v>
+        <v>32.1</v>
       </c>
       <c r="T12" t="n">
-        <v>45.4</v>
+        <v>45.1</v>
       </c>
       <c r="U12" t="n">
-        <v>18.1</v>
+        <v>17.9</v>
       </c>
       <c r="V12" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="W12" t="n">
-        <v>8.9</v>
+        <v>9.4</v>
       </c>
       <c r="X12" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Z12" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="AA12" t="n">
-        <v>21.8</v>
+        <v>22.2</v>
       </c>
       <c r="AB12" t="n">
-        <v>93.2</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="AC12" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="AE12" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AF12" t="n">
         <v>3</v>
       </c>
       <c r="AG12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AH12" t="n">
         <v>8</v>
@@ -2588,16 +2655,16 @@
         <v>26</v>
       </c>
       <c r="AL12" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM12" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AN12" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO12" t="n">
         <v>4</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>5</v>
       </c>
       <c r="AP12" t="n">
         <v>9</v>
@@ -2609,16 +2676,16 @@
         <v>3</v>
       </c>
       <c r="AS12" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AT12" t="n">
         <v>2</v>
       </c>
       <c r="AU12" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AV12" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AW12" t="n">
         <v>7</v>
@@ -2627,19 +2694,19 @@
         <v>5</v>
       </c>
       <c r="AY12" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AZ12" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BA12" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="BB12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BC12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-22-2011-12</t>
+          <t>2012-01-22</t>
         </is>
       </c>
     </row>
@@ -2668,16 +2735,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F13" t="n">
         <v>5</v>
       </c>
       <c r="G13" t="n">
-        <v>0.643</v>
+        <v>0.615</v>
       </c>
       <c r="H13" t="n">
         <v>48.4</v>
@@ -2686,73 +2753,73 @@
         <v>35.9</v>
       </c>
       <c r="J13" t="n">
-        <v>79.3</v>
+        <v>79.8</v>
       </c>
       <c r="K13" t="n">
-        <v>0.452</v>
+        <v>0.45</v>
       </c>
       <c r="L13" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="M13" t="n">
         <v>20.2</v>
       </c>
       <c r="N13" t="n">
-        <v>0.346</v>
+        <v>0.344</v>
       </c>
       <c r="O13" t="n">
-        <v>18.7</v>
+        <v>18.2</v>
       </c>
       <c r="P13" t="n">
-        <v>28.4</v>
+        <v>27.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.66</v>
+        <v>0.664</v>
       </c>
       <c r="R13" t="n">
-        <v>10.9</v>
+        <v>11.1</v>
       </c>
       <c r="S13" t="n">
-        <v>29.7</v>
+        <v>29.3</v>
       </c>
       <c r="T13" t="n">
-        <v>40.6</v>
+        <v>40.4</v>
       </c>
       <c r="U13" t="n">
-        <v>21.4</v>
+        <v>21.1</v>
       </c>
       <c r="V13" t="n">
-        <v>14.1</v>
+        <v>13.5</v>
       </c>
       <c r="W13" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="X13" t="n">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="Y13" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="Z13" t="n">
-        <v>21.2</v>
+        <v>21</v>
       </c>
       <c r="AA13" t="n">
-        <v>24.2</v>
+        <v>23.7</v>
       </c>
       <c r="AB13" t="n">
-        <v>97.40000000000001</v>
+        <v>97</v>
       </c>
       <c r="AC13" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="AD13" t="n">
         <v>30</v>
       </c>
       <c r="AE13" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AF13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG13" t="n">
         <v>10</v>
@@ -2761,16 +2828,16 @@
         <v>7</v>
       </c>
       <c r="AI13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ13" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AK13" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AL13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AM13" t="n">
         <v>9</v>
@@ -2788,7 +2855,7 @@
         <v>29</v>
       </c>
       <c r="AR13" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AS13" t="n">
         <v>25</v>
@@ -2797,28 +2864,28 @@
         <v>26</v>
       </c>
       <c r="AU13" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AV13" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AW13" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AX13" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AY13" t="n">
         <v>1</v>
       </c>
       <c r="AZ13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BA13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BC13" t="n">
         <v>16</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-22-2011-12</t>
+          <t>2012-01-22</t>
         </is>
       </c>
     </row>
@@ -2850,16 +2917,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E14" t="n">
         <v>10</v>
       </c>
       <c r="F14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G14" t="n">
-        <v>0.556</v>
+        <v>0.588</v>
       </c>
       <c r="H14" t="n">
         <v>48.3</v>
@@ -2868,76 +2935,76 @@
         <v>35.5</v>
       </c>
       <c r="J14" t="n">
-        <v>79.09999999999999</v>
+        <v>78.7</v>
       </c>
       <c r="K14" t="n">
-        <v>0.449</v>
+        <v>0.451</v>
       </c>
       <c r="L14" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="M14" t="n">
-        <v>15.4</v>
+        <v>15.8</v>
       </c>
       <c r="N14" t="n">
-        <v>0.256</v>
+        <v>0.257</v>
       </c>
       <c r="O14" t="n">
-        <v>17.4</v>
+        <v>17.1</v>
       </c>
       <c r="P14" t="n">
-        <v>23.4</v>
+        <v>22.8</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.743</v>
+        <v>0.75</v>
       </c>
       <c r="R14" t="n">
-        <v>11.4</v>
+        <v>11.1</v>
       </c>
       <c r="S14" t="n">
-        <v>33.4</v>
+        <v>33.9</v>
       </c>
       <c r="T14" t="n">
-        <v>44.8</v>
+        <v>44.9</v>
       </c>
       <c r="U14" t="n">
         <v>21.9</v>
       </c>
       <c r="V14" t="n">
-        <v>14.9</v>
+        <v>15.4</v>
       </c>
       <c r="W14" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="X14" t="n">
         <v>5</v>
       </c>
       <c r="Y14" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>19.8</v>
+        <v>20.1</v>
       </c>
       <c r="AA14" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="AB14" t="n">
-        <v>92.3</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="AC14" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="AD14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF14" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AG14" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AH14" t="n">
         <v>17</v>
@@ -2946,10 +3013,10 @@
         <v>16</v>
       </c>
       <c r="AJ14" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK14" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AL14" t="n">
         <v>27</v>
@@ -2961,16 +3028,16 @@
         <v>30</v>
       </c>
       <c r="AO14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP14" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AQ14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AR14" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AS14" t="n">
         <v>2</v>
@@ -2979,13 +3046,13 @@
         <v>3</v>
       </c>
       <c r="AU14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV14" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AW14" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AX14" t="n">
         <v>14</v>
@@ -2997,10 +3064,10 @@
         <v>11</v>
       </c>
       <c r="BA14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BB14" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BC14" t="n">
         <v>14</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-22-2011-12</t>
+          <t>2012-01-22</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>3.7</v>
       </c>
       <c r="AD15" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE15" t="n">
         <v>13</v>
@@ -3128,7 +3195,7 @@
         <v>6</v>
       </c>
       <c r="AJ15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK15" t="n">
         <v>4</v>
@@ -3149,7 +3216,7 @@
         <v>16</v>
       </c>
       <c r="AQ15" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AR15" t="n">
         <v>12</v>
@@ -3164,7 +3231,7 @@
         <v>21</v>
       </c>
       <c r="AV15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW15" t="n">
         <v>1</v>
@@ -3179,7 +3246,7 @@
         <v>9</v>
       </c>
       <c r="BA15" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BB15" t="n">
         <v>12</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-22-2011-12</t>
+          <t>2012-01-22</t>
         </is>
       </c>
     </row>
@@ -3214,94 +3281,94 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E16" t="n">
         <v>11</v>
       </c>
       <c r="F16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6879999999999999</v>
+        <v>0.733</v>
       </c>
       <c r="H16" t="n">
-        <v>49.6</v>
+        <v>49.7</v>
       </c>
       <c r="I16" t="n">
-        <v>39.4</v>
+        <v>40.4</v>
       </c>
       <c r="J16" t="n">
-        <v>80.90000000000001</v>
+        <v>81.8</v>
       </c>
       <c r="K16" t="n">
-        <v>0.488</v>
+        <v>0.494</v>
       </c>
       <c r="L16" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="M16" t="n">
-        <v>15</v>
+        <v>15.2</v>
       </c>
       <c r="N16" t="n">
-        <v>0.4</v>
+        <v>0.408</v>
       </c>
       <c r="O16" t="n">
-        <v>20.6</v>
+        <v>20</v>
       </c>
       <c r="P16" t="n">
-        <v>27.7</v>
+        <v>27.2</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.743</v>
+        <v>0.735</v>
       </c>
       <c r="R16" t="n">
-        <v>10.6</v>
+        <v>10.5</v>
       </c>
       <c r="S16" t="n">
-        <v>33.2</v>
+        <v>33.4</v>
       </c>
       <c r="T16" t="n">
-        <v>43.8</v>
+        <v>43.9</v>
       </c>
       <c r="U16" t="n">
-        <v>21.9</v>
+        <v>22.7</v>
       </c>
       <c r="V16" t="n">
-        <v>17</v>
+        <v>16.7</v>
       </c>
       <c r="W16" t="n">
-        <v>9.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="X16" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="Y16" t="n">
         <v>4.6</v>
       </c>
       <c r="Z16" t="n">
-        <v>22.1</v>
+        <v>21.9</v>
       </c>
       <c r="AA16" t="n">
-        <v>22.3</v>
+        <v>21.9</v>
       </c>
       <c r="AB16" t="n">
-        <v>105.4</v>
+        <v>107</v>
       </c>
       <c r="AC16" t="n">
-        <v>7.9</v>
+        <v>9.1</v>
       </c>
       <c r="AD16" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AE16" t="n">
         <v>5</v>
       </c>
       <c r="AF16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AG16" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AH16" t="n">
         <v>1</v>
@@ -3310,61 +3377,61 @@
         <v>1</v>
       </c>
       <c r="AJ16" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AK16" t="n">
         <v>1</v>
       </c>
       <c r="AL16" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AM16" t="n">
         <v>21</v>
       </c>
       <c r="AN16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AP16" t="n">
         <v>3</v>
       </c>
       <c r="AQ16" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="AR16" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AS16" t="n">
         <v>3</v>
       </c>
       <c r="AT16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AU16" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AV16" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AW16" t="n">
         <v>5</v>
       </c>
       <c r="AX16" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY16" t="n">
         <v>9</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>8</v>
       </c>
       <c r="AZ16" t="n">
         <v>26</v>
       </c>
       <c r="BA16" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BB16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC16" t="n">
         <v>3</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-22-2011-12</t>
+          <t>2012-01-22</t>
         </is>
       </c>
     </row>
@@ -3396,121 +3463,121 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F17" t="n">
         <v>9</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4</v>
+        <v>0.357</v>
       </c>
       <c r="H17" t="n">
         <v>48</v>
       </c>
       <c r="I17" t="n">
-        <v>35.6</v>
+        <v>36.1</v>
       </c>
       <c r="J17" t="n">
-        <v>83</v>
+        <v>83.2</v>
       </c>
       <c r="K17" t="n">
-        <v>0.429</v>
+        <v>0.434</v>
       </c>
       <c r="L17" t="n">
         <v>6.1</v>
       </c>
       <c r="M17" t="n">
-        <v>20.1</v>
+        <v>19.4</v>
       </c>
       <c r="N17" t="n">
-        <v>0.301</v>
+        <v>0.316</v>
       </c>
       <c r="O17" t="n">
-        <v>15.1</v>
+        <v>14</v>
       </c>
       <c r="P17" t="n">
-        <v>19.5</v>
+        <v>18.4</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.774</v>
+        <v>0.76</v>
       </c>
       <c r="R17" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="S17" t="n">
-        <v>28.3</v>
+        <v>28.4</v>
       </c>
       <c r="T17" t="n">
-        <v>40.5</v>
+        <v>40.4</v>
       </c>
       <c r="U17" t="n">
-        <v>21.2</v>
+        <v>21.4</v>
       </c>
       <c r="V17" t="n">
         <v>15.6</v>
       </c>
       <c r="W17" t="n">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="X17" t="n">
         <v>4.4</v>
       </c>
       <c r="Y17" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>21.9</v>
+        <v>21.4</v>
       </c>
       <c r="AA17" t="n">
-        <v>19.8</v>
+        <v>19.4</v>
       </c>
       <c r="AB17" t="n">
-        <v>92.3</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="AC17" t="n">
-        <v>-2.1</v>
+        <v>-2.9</v>
       </c>
       <c r="AD17" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="AE17" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AF17" t="n">
         <v>17</v>
       </c>
       <c r="AG17" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AH17" t="n">
         <v>18</v>
       </c>
       <c r="AI17" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AJ17" t="n">
         <v>7</v>
       </c>
       <c r="AK17" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AL17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AM17" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AN17" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AO17" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AP17" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AQ17" t="n">
         <v>9</v>
@@ -3525,31 +3592,31 @@
         <v>27</v>
       </c>
       <c r="AU17" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AV17" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AW17" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AX17" t="n">
         <v>23</v>
       </c>
       <c r="AY17" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AZ17" t="n">
         <v>25</v>
       </c>
       <c r="BA17" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="BB17" t="n">
         <v>20</v>
       </c>
       <c r="BC17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-22-2011-12</t>
+          <t>2012-01-22</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>1.4</v>
       </c>
       <c r="AD18" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AE18" t="n">
         <v>17</v>
@@ -3677,7 +3744,7 @@
         <v>21</v>
       </c>
       <c r="AK18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL18" t="n">
         <v>3</v>
@@ -3713,16 +3780,16 @@
         <v>24</v>
       </c>
       <c r="AW18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AX18" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AY18" t="n">
         <v>24</v>
       </c>
       <c r="AZ18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA18" t="n">
         <v>3</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-22-2011-12</t>
+          <t>2012-01-22</t>
         </is>
       </c>
     </row>
@@ -3760,64 +3827,64 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F19" t="n">
         <v>12</v>
       </c>
       <c r="G19" t="n">
-        <v>0.294</v>
+        <v>0.25</v>
       </c>
       <c r="H19" t="n">
         <v>48</v>
       </c>
       <c r="I19" t="n">
-        <v>32.8</v>
+        <v>32.5</v>
       </c>
       <c r="J19" t="n">
-        <v>79.59999999999999</v>
+        <v>79.2</v>
       </c>
       <c r="K19" t="n">
-        <v>0.412</v>
+        <v>0.41</v>
       </c>
       <c r="L19" t="n">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="M19" t="n">
-        <v>25.9</v>
+        <v>25.8</v>
       </c>
       <c r="N19" t="n">
-        <v>0.348</v>
+        <v>0.354</v>
       </c>
       <c r="O19" t="n">
-        <v>17</v>
+        <v>17.2</v>
       </c>
       <c r="P19" t="n">
-        <v>21.6</v>
+        <v>22.1</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.785</v>
+        <v>0.779</v>
       </c>
       <c r="R19" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="S19" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="T19" t="n">
-        <v>39.9</v>
+        <v>39.4</v>
       </c>
       <c r="U19" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="V19" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="W19" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="X19" t="n">
         <v>4.1</v>
@@ -3826,22 +3893,22 @@
         <v>6.2</v>
       </c>
       <c r="Z19" t="n">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="AA19" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AB19" t="n">
-        <v>91.59999999999999</v>
+        <v>91.3</v>
       </c>
       <c r="AC19" t="n">
-        <v>-7.2</v>
+        <v>-8.300000000000001</v>
       </c>
       <c r="AD19" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AE19" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AF19" t="n">
         <v>25</v>
@@ -3853,13 +3920,13 @@
         <v>18</v>
       </c>
       <c r="AI19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>22</v>
+      </c>
+      <c r="AK19" t="n">
         <v>28</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>20</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>29</v>
       </c>
       <c r="AL19" t="n">
         <v>2</v>
@@ -3868,19 +3935,19 @@
         <v>1</v>
       </c>
       <c r="AN19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AO19" t="n">
         <v>14</v>
       </c>
-      <c r="AO19" t="n">
-        <v>15</v>
-      </c>
       <c r="AP19" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AQ19" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AR19" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AS19" t="n">
         <v>29</v>
@@ -3892,28 +3959,28 @@
         <v>22</v>
       </c>
       <c r="AV19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AW19" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AX19" t="n">
         <v>26</v>
       </c>
       <c r="AY19" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AZ19" t="n">
+        <v>18</v>
+      </c>
+      <c r="BA19" t="n">
         <v>13</v>
-      </c>
-      <c r="BA19" t="n">
-        <v>14</v>
       </c>
       <c r="BB19" t="n">
         <v>23</v>
       </c>
       <c r="BC19" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-22-2011-12</t>
+          <t>2012-01-22</t>
         </is>
       </c>
     </row>
@@ -4020,13 +4087,13 @@
         <v>-4.8</v>
       </c>
       <c r="AD20" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AE20" t="n">
         <v>28</v>
       </c>
       <c r="AF20" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG20" t="n">
         <v>28</v>
@@ -4038,7 +4105,7 @@
         <v>23</v>
       </c>
       <c r="AJ20" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK20" t="n">
         <v>23</v>
@@ -4053,7 +4120,7 @@
         <v>29</v>
       </c>
       <c r="AO20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP20" t="n">
         <v>21</v>
@@ -4074,13 +4141,13 @@
         <v>23</v>
       </c>
       <c r="AV20" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AW20" t="n">
         <v>21</v>
       </c>
       <c r="AX20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY20" t="n">
         <v>26</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-22-2011-12</t>
+          <t>2012-01-22</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-2.4</v>
       </c>
       <c r="AD21" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AE21" t="n">
         <v>18</v>
@@ -4211,7 +4278,7 @@
         <v>22</v>
       </c>
       <c r="AG21" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AH21" t="n">
         <v>5</v>
@@ -4232,7 +4299,7 @@
         <v>3</v>
       </c>
       <c r="AN21" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO21" t="n">
         <v>3</v>
@@ -4241,22 +4308,22 @@
         <v>5</v>
       </c>
       <c r="AQ21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AR21" t="n">
         <v>18</v>
       </c>
       <c r="AS21" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AT21" t="n">
         <v>15</v>
       </c>
       <c r="AU21" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AV21" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AW21" t="n">
         <v>3</v>
@@ -4265,7 +4332,7 @@
         <v>25</v>
       </c>
       <c r="AY21" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ21" t="n">
         <v>27</v>
@@ -4277,7 +4344,7 @@
         <v>17</v>
       </c>
       <c r="BC21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-22-2011-12</t>
+          <t>2012-01-22</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>4.8</v>
       </c>
       <c r="AD22" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
@@ -4429,13 +4496,13 @@
         <v>28</v>
       </c>
       <c r="AS22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AT22" t="n">
         <v>12</v>
       </c>
       <c r="AU22" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AV22" t="n">
         <v>24</v>
@@ -4447,10 +4514,10 @@
         <v>2</v>
       </c>
       <c r="AY22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ22" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BA22" t="n">
         <v>12</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-22-2011-12</t>
+          <t>2012-01-22</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>5.4</v>
       </c>
       <c r="AD23" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE23" t="n">
         <v>5</v>
@@ -4578,7 +4645,7 @@
         <v>3</v>
       </c>
       <c r="AH23" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI23" t="n">
         <v>18</v>
@@ -4596,22 +4663,22 @@
         <v>2</v>
       </c>
       <c r="AN23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO23" t="n">
         <v>16</v>
       </c>
       <c r="AP23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AQ23" t="n">
         <v>30</v>
       </c>
       <c r="AR23" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AS23" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AT23" t="n">
         <v>9</v>
@@ -4623,7 +4690,7 @@
         <v>8</v>
       </c>
       <c r="AW23" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AX23" t="n">
         <v>30</v>
@@ -4635,7 +4702,7 @@
         <v>6</v>
       </c>
       <c r="BA23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB23" t="n">
         <v>9</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-22-2011-12</t>
+          <t>2012-01-22</t>
         </is>
       </c>
     </row>
@@ -4748,16 +4815,16 @@
         <v>11.4</v>
       </c>
       <c r="AD24" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AE24" t="n">
         <v>5</v>
       </c>
       <c r="AF24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG24" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH24" t="n">
         <v>13</v>
@@ -4766,7 +4833,7 @@
         <v>2</v>
       </c>
       <c r="AJ24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK24" t="n">
         <v>3</v>
@@ -4781,10 +4848,10 @@
         <v>7</v>
       </c>
       <c r="AO24" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AP24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AQ24" t="n">
         <v>20</v>
@@ -4796,7 +4863,7 @@
         <v>1</v>
       </c>
       <c r="AT24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AU24" t="n">
         <v>7</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-22-2011-12</t>
+          <t>2012-01-22</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>-1.9</v>
       </c>
       <c r="AD25" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE25" t="n">
         <v>18</v>
@@ -4945,13 +5012,13 @@
         <v>18</v>
       </c>
       <c r="AI25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ25" t="n">
         <v>19</v>
       </c>
       <c r="AK25" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AL25" t="n">
         <v>14</v>
@@ -4969,7 +5036,7 @@
         <v>29</v>
       </c>
       <c r="AQ25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AR25" t="n">
         <v>26</v>
@@ -4981,7 +5048,7 @@
         <v>25</v>
       </c>
       <c r="AU25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV25" t="n">
         <v>9</v>
@@ -4999,10 +5066,10 @@
         <v>10</v>
       </c>
       <c r="BA25" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BB25" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BC25" t="n">
         <v>19</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-22-2011-12</t>
+          <t>2012-01-22</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>2.8</v>
       </c>
       <c r="AD26" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AE26" t="n">
         <v>13</v>
@@ -5121,7 +5188,7 @@
         <v>12</v>
       </c>
       <c r="AG26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH26" t="n">
         <v>13</v>
@@ -5133,16 +5200,16 @@
         <v>6</v>
       </c>
       <c r="AK26" t="n">
+        <v>20</v>
+      </c>
+      <c r="AL26" t="n">
         <v>19</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>20</v>
       </c>
       <c r="AM26" t="n">
         <v>15</v>
       </c>
       <c r="AN26" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AO26" t="n">
         <v>8</v>
@@ -5151,10 +5218,10 @@
         <v>12</v>
       </c>
       <c r="AQ26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AR26" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AS26" t="n">
         <v>20</v>
@@ -5166,10 +5233,10 @@
         <v>11</v>
       </c>
       <c r="AV26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX26" t="n">
         <v>18</v>
@@ -5178,7 +5245,7 @@
         <v>17</v>
       </c>
       <c r="AZ26" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BA26" t="n">
         <v>7</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-22-2011-12</t>
+          <t>2012-01-22</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-11.2</v>
       </c>
       <c r="AD27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE27" t="n">
         <v>18</v>
@@ -5333,7 +5400,7 @@
         <v>7</v>
       </c>
       <c r="AQ27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AR27" t="n">
         <v>1</v>
@@ -5342,13 +5409,13 @@
         <v>27</v>
       </c>
       <c r="AT27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AU27" t="n">
         <v>30</v>
       </c>
       <c r="AV27" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AW27" t="n">
         <v>14</v>
@@ -5357,13 +5424,13 @@
         <v>28</v>
       </c>
       <c r="AY27" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ27" t="n">
         <v>7</v>
       </c>
       <c r="BA27" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BB27" t="n">
         <v>25</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-22-2011-12</t>
+          <t>2012-01-22</t>
         </is>
       </c>
     </row>
@@ -5476,10 +5543,10 @@
         <v>2.8</v>
       </c>
       <c r="AD28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF28" t="n">
         <v>12</v>
@@ -5503,34 +5570,34 @@
         <v>4</v>
       </c>
       <c r="AM28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN28" t="n">
         <v>9</v>
       </c>
       <c r="AO28" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AP28" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ28" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR28" t="n">
         <v>21</v>
       </c>
       <c r="AS28" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AT28" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AU28" t="n">
         <v>2</v>
       </c>
       <c r="AV28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW28" t="n">
         <v>24</v>
@@ -5539,13 +5606,13 @@
         <v>24</v>
       </c>
       <c r="AY28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ28" t="n">
         <v>3</v>
       </c>
       <c r="BA28" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BB28" t="n">
         <v>5</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-22-2011-12</t>
+          <t>2012-01-22</t>
         </is>
       </c>
     </row>
@@ -5580,94 +5647,94 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E29" t="n">
         <v>4</v>
       </c>
       <c r="F29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G29" t="n">
-        <v>0.235</v>
+        <v>0.25</v>
       </c>
       <c r="H29" t="n">
         <v>48</v>
       </c>
       <c r="I29" t="n">
-        <v>32.2</v>
+        <v>32.4</v>
       </c>
       <c r="J29" t="n">
-        <v>76.8</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="K29" t="n">
-        <v>0.42</v>
+        <v>0.424</v>
       </c>
       <c r="L29" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="M29" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="N29" t="n">
-        <v>0.318</v>
+        <v>0.311</v>
       </c>
       <c r="O29" t="n">
-        <v>15.6</v>
+        <v>15.1</v>
       </c>
       <c r="P29" t="n">
-        <v>20.5</v>
+        <v>19.9</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.762</v>
+        <v>0.758</v>
       </c>
       <c r="R29" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="S29" t="n">
-        <v>31.5</v>
+        <v>31.9</v>
       </c>
       <c r="T29" t="n">
-        <v>41.5</v>
+        <v>41.6</v>
       </c>
       <c r="U29" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="V29" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="W29" t="n">
-        <v>6.5</v>
+        <v>5.9</v>
       </c>
       <c r="X29" t="n">
         <v>5.1</v>
       </c>
       <c r="Y29" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="Z29" t="n">
-        <v>24.5</v>
+        <v>24.1</v>
       </c>
       <c r="AA29" t="n">
-        <v>18.2</v>
+        <v>17.8</v>
       </c>
       <c r="AB29" t="n">
-        <v>85.40000000000001</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="AC29" t="n">
-        <v>-7.5</v>
+        <v>-7.2</v>
       </c>
       <c r="AD29" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AE29" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AF29" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG29" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AH29" t="n">
         <v>18</v>
@@ -5688,13 +5755,13 @@
         <v>19</v>
       </c>
       <c r="AN29" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AO29" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP29" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AQ29" t="n">
         <v>10</v>
@@ -5703,7 +5770,7 @@
         <v>24</v>
       </c>
       <c r="AS29" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AT29" t="n">
         <v>23</v>
@@ -5712,28 +5779,28 @@
         <v>19</v>
       </c>
       <c r="AV29" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AW29" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AX29" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AY29" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AZ29" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BA29" t="n">
         <v>28</v>
       </c>
       <c r="BB29" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BC29" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-22-2011-12</t>
+          <t>2012-01-22</t>
         </is>
       </c>
     </row>
@@ -5840,25 +5907,25 @@
         <v>2.4</v>
       </c>
       <c r="AD30" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG30" t="n">
         <v>9</v>
       </c>
       <c r="AH30" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI30" t="n">
         <v>8</v>
       </c>
       <c r="AJ30" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK30" t="n">
         <v>8</v>
@@ -5882,10 +5949,10 @@
         <v>19</v>
       </c>
       <c r="AR30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AS30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AT30" t="n">
         <v>10</v>
@@ -5894,7 +5961,7 @@
         <v>12</v>
       </c>
       <c r="AV30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW30" t="n">
         <v>12</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-22-2011-12</t>
+          <t>2012-01-22</t>
         </is>
       </c>
     </row>
@@ -5944,61 +6011,61 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E31" t="n">
         <v>2</v>
       </c>
       <c r="F31" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G31" t="n">
-        <v>0.125</v>
+        <v>0.133</v>
       </c>
       <c r="H31" t="n">
         <v>48</v>
       </c>
       <c r="I31" t="n">
-        <v>34.5</v>
+        <v>34.3</v>
       </c>
       <c r="J31" t="n">
-        <v>83.40000000000001</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="K31" t="n">
-        <v>0.413</v>
+        <v>0.409</v>
       </c>
       <c r="L31" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="M31" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="N31" t="n">
-        <v>0.296</v>
+        <v>0.307</v>
       </c>
       <c r="O31" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="P31" t="n">
         <v>21.7</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.726</v>
+        <v>0.718</v>
       </c>
       <c r="R31" t="n">
-        <v>11.3</v>
+        <v>11.7</v>
       </c>
       <c r="S31" t="n">
-        <v>30.4</v>
+        <v>30.3</v>
       </c>
       <c r="T31" t="n">
-        <v>41.7</v>
+        <v>42</v>
       </c>
       <c r="U31" t="n">
         <v>16.9</v>
       </c>
       <c r="V31" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="W31" t="n">
         <v>8.5</v>
@@ -6007,28 +6074,28 @@
         <v>7.7</v>
       </c>
       <c r="Y31" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="Z31" t="n">
-        <v>20.7</v>
+        <v>20.2</v>
       </c>
       <c r="AA31" t="n">
         <v>19.5</v>
       </c>
       <c r="AB31" t="n">
-        <v>89</v>
+        <v>88.7</v>
       </c>
       <c r="AC31" t="n">
-        <v>-10.1</v>
+        <v>-10.3</v>
       </c>
       <c r="AD31" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AE31" t="n">
         <v>30</v>
       </c>
       <c r="AF31" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AG31" t="n">
         <v>30</v>
@@ -6040,31 +6107,31 @@
         <v>20</v>
       </c>
       <c r="AJ31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK31" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL31" t="n">
         <v>26</v>
       </c>
       <c r="AM31" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AN31" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AO31" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AP31" t="n">
         <v>19</v>
       </c>
       <c r="AQ31" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AR31" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AS31" t="n">
         <v>23</v>
@@ -6076,19 +6143,19 @@
         <v>29</v>
       </c>
       <c r="AV31" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW31" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AX31" t="n">
         <v>1</v>
       </c>
       <c r="AY31" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ31" t="n">
         <v>12</v>
-      </c>
-      <c r="AZ31" t="n">
-        <v>17</v>
       </c>
       <c r="BA31" t="n">
         <v>20</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-22-2011-12</t>
+          <t>2012-01-22</t>
         </is>
       </c>
     </row>
